--- a/public/assets/purchase_sample.xlsx
+++ b/public/assets/purchase_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hafeez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\auction\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -78,24 +78,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>Suzuki</t>
-  </si>
-  <si>
-    <t>Cultus</t>
-  </si>
-  <si>
-    <t>445566-334422</t>
-  </si>
-  <si>
-    <t>Yard</t>
-  </si>
-  <si>
-    <t>Test Auction</t>
-  </si>
-  <si>
-    <t>This is test</t>
   </si>
 </sst>
 </file>
@@ -417,13 +399,14 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -485,60 +468,9 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>334342</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45646</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2">
-        <v>200</v>
-      </c>
-      <c r="J2">
-        <v>300</v>
-      </c>
-      <c r="K2">
-        <v>200</v>
-      </c>
-      <c r="L2">
-        <v>200</v>
-      </c>
-      <c r="M2">
-        <v>300</v>
-      </c>
-      <c r="N2">
-        <v>5000</v>
-      </c>
-      <c r="O2">
-        <v>2300</v>
-      </c>
-      <c r="P2" s="1">
-        <v>45638</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>44950</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/public/assets/purchase_sample.xlsx
+++ b/public/assets/purchase_sample.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>

--- a/public/assets/purchase_sample.xlsx
+++ b/public/assets/purchase_sample.xlsx
@@ -41,9 +41,6 @@
     <t>engine_no</t>
   </si>
   <si>
-    <t>cno</t>
-  </si>
-  <si>
     <t>p_date</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>fee_tax</t>
   </si>
   <si>
-    <t>rikuso</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -74,10 +68,16 @@
     <t>arrival_date</t>
   </si>
   <si>
-    <t>syorui_date</t>
-  </si>
-  <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>yard</t>
+  </si>
+  <si>
+    <t>transport_charges</t>
+  </si>
+  <si>
+    <t>document_date</t>
   </si>
 </sst>
 </file>
@@ -399,16 +399,18 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -428,43 +430,43 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
         <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">

--- a/public/assets/purchase_sample.xlsx
+++ b/public/assets/purchase_sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>year</t>
   </si>
@@ -38,9 +38,6 @@
     <t>chassis_no</t>
   </si>
   <si>
-    <t>engine_no</t>
-  </si>
-  <si>
     <t>p_date</t>
   </si>
   <si>
@@ -78,6 +75,15 @@
   </si>
   <si>
     <t>document_date</t>
+  </si>
+  <si>
+    <t>loot_no</t>
+  </si>
+  <si>
+    <t>number_plate</t>
+  </si>
+  <si>
+    <t>number_plate_validity</t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,9 +417,11 @@
     <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,56 +435,64 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:Q2">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:S2">
       <formula1>34700</formula1>
       <formula2>46022</formula2>
     </dataValidation>
